--- a/SpieleMitPreisenIDs.xlsx
+++ b/SpieleMitPreisenIDs.xlsx
@@ -11,18 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Tabelle 1</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Spiel</t>
-  </si>
-  <si>
-    <t>Preis in €</t>
   </si>
   <si>
     <t>Cranium</t>
@@ -520,7 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1632,22 +1623,16 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>3</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8">
         <v>8</v>
@@ -1658,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11">
         <v>5</v>
@@ -1669,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11">
         <v>5</v>
@@ -1680,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1691,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -1702,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11">
         <v>5</v>
@@ -1713,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11">
         <v>3</v>
@@ -1724,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11">
         <v>20</v>
@@ -1735,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11">
         <v>5</v>
@@ -1746,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11">
         <v>10</v>
@@ -1757,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11">
         <v>5</v>
@@ -1768,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="11">
         <v>15</v>
@@ -1779,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11">
         <v>2</v>
@@ -1790,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="11">
         <v>15</v>
@@ -1801,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11">
         <v>5</v>
@@ -1812,7 +1797,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11">
         <v>5</v>
@@ -1823,7 +1808,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="11">
         <v>12</v>
@@ -1834,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
@@ -1845,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11">
         <v>10</v>
@@ -1856,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="11">
         <v>3</v>
@@ -1867,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -1878,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="11">
         <v>10</v>
@@ -1889,7 +1874,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="11">
         <v>5</v>
@@ -1900,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="10">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="11">
         <v>8</v>
@@ -1911,7 +1896,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
@@ -1922,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="11">
         <v>8</v>
@@ -1933,7 +1918,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="11">
         <v>19</v>
@@ -1944,7 +1929,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11">
         <v>10</v>
@@ -1955,7 +1940,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="11">
         <v>2</v>
@@ -1966,7 +1951,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11">
         <v>0</v>
@@ -1977,7 +1962,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="11">
         <v>13</v>
@@ -1988,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="11">
         <v>5</v>
@@ -1999,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="11">
         <v>10</v>
@@ -2010,7 +1995,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="10">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
@@ -2021,7 +2006,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="11">
         <v>15</v>
@@ -2032,7 +2017,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="14">
         <v>1</v>
@@ -2043,7 +2028,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="16">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" s="17">
         <v>3</v>
@@ -2054,7 +2039,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="16">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="17">
         <v>1</v>
@@ -2065,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="16">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="17">
         <v>2</v>
@@ -2076,7 +2061,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="16">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="17">
         <v>10</v>
@@ -2087,7 +2072,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="16">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="17">
         <v>5</v>
@@ -2098,7 +2083,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="16">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="17">
         <v>9</v>
@@ -2109,7 +2094,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="16">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="17">
         <v>0</v>
@@ -2120,7 +2105,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="17">
         <v>12</v>
@@ -2131,7 +2116,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="16">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="17">
         <v>9</v>
@@ -2142,7 +2127,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="16">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="17">
         <v>0</v>
@@ -2153,7 +2138,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="16">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" s="17">
         <v>1</v>
@@ -2164,7 +2149,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="16">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="17">
         <v>1</v>
@@ -2175,7 +2160,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="16">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51" s="17">
         <v>10</v>
@@ -2186,7 +2171,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="16">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" s="17">
         <v>2</v>
@@ -2197,7 +2182,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="16">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" s="17">
         <v>2</v>
@@ -2208,7 +2193,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="16">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" s="17">
         <v>15</v>
@@ -2219,7 +2204,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="16">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C55" s="17">
         <v>2</v>
@@ -2230,7 +2215,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="16">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C56" s="17">
         <v>6</v>
@@ -2241,7 +2226,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="16">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57" s="17">
         <v>3</v>
@@ -2252,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="16">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C58" s="17">
         <v>6</v>
@@ -2263,7 +2248,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="16">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C59" s="17">
         <v>0</v>
@@ -2274,7 +2259,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="16">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="17">
         <v>0</v>
@@ -2285,7 +2270,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="16">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
@@ -2296,7 +2281,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="16">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62" s="17">
         <v>10</v>
@@ -2307,7 +2292,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="16">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63" s="17">
         <v>3</v>
@@ -2318,7 +2303,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="16">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64" s="17">
         <v>20</v>
@@ -2329,7 +2314,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="16">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65" s="17">
         <v>15</v>
@@ -2340,7 +2325,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="16">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C66" s="17">
         <v>20</v>
@@ -2351,7 +2336,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="16">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67" s="17">
         <v>10</v>
@@ -2362,7 +2347,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="16">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C68" s="17">
         <v>4</v>
@@ -2373,7 +2358,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="16">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C69" s="17">
         <v>7</v>
@@ -2384,7 +2369,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="16">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70" s="17">
         <v>15</v>
@@ -2395,7 +2380,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="16">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71" s="17">
         <v>18</v>
